--- a/Resultados/Resultado_final_3.xlsx
+++ b/Resultados/Resultado_final_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="208" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -82,10 +82,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="true"/>
-    <col min="2" max="2" width="24.5546875" customWidth="true"/>
-    <col min="3" max="3" width="6.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="17.28515625" customWidth="true"/>
+    <col min="2" max="2" width="26.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -107,10 +107,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>23.009896021899433</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>25.782794505618401</v>
+        <v>14.641087308968547</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
@@ -135,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>22.129650895245263</v>
+        <v>14.692661778764169</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
@@ -149,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>23.349943443346895</v>
+        <v>12.281263853336428</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
@@ -163,7 +163,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>12.115782505504535</v>
+        <v>19.508581593606571</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>15.060335908276167</v>
+        <v>27.752992075139776</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
@@ -191,7 +191,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>12.607769992169368</v>
+        <v>2.4692800503053962</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
@@ -205,7 +205,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>13.541831787055806</v>
+        <v>2.2232116833113347</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>15.341166794788135</v>
+        <v>17.602630158134062</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>12.602735872966321</v>
+        <v>4.2725565384413766</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
@@ -247,7 +247,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>14.705369074548274</v>
+        <v>1.8792007995330282</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>12.031155456531071</v>
+        <v>2.9881157317560825</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>8.5294786476672968</v>
+        <v>7.7388138435454223</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>9.7774890713169018</v>
+        <v>6.6518559059732194</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
@@ -303,7 +303,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>6.1295992598801767</v>
+        <v>1.3749435660592213</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3</v>
@@ -317,7 +317,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>6.3504594183839469</v>
+        <v>1.2633775629608788</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>3</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>6.7454660872450019</v>
+        <v>2.0588889409986768</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>3</v>
@@ -345,7 +345,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>21.815358446875745</v>
+        <v>4.6076063939110021</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>3</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>37.913711885480609</v>
+        <v>1.5846929870531885</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>3</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>16.793722025948089</v>
+        <v>10.718252184680313</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>3</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>4.7505707524562553</v>
+        <v>2.6735707360581156</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>8.1482703423712088</v>
+        <v>2.703244942162816</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>3</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>3.6381791661940901</v>
+        <v>1.1419314863571866</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>3.3927398977680108</v>
+        <v>0.98457806695872319</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3</v>
@@ -443,10 +443,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>100</v>
+        <v>1.8101619621913176</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="0">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>23.69740945403818</v>
+        <v>1.3082392157324767</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>3</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>7.3877971483384073</v>
+        <v>1.2411150888505684</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>13.667195553386302</v>
+        <v>1.2874169049953603</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>3</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>22.895258758146714</v>
+        <v>1.3918728138803445</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>3</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>21.348388168513218</v>
+        <v>1.4440749691943211</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>3</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>5.8004001135384078</v>
+        <v>1.236611955528311</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>3.8879912557585947</v>
+        <v>1.13280188852109</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>3</v>
@@ -555,7 +555,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>13.74669057811767</v>
+        <v>1.8161496831106219</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>3</v>
@@ -569,7 +569,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>7.8038544904394946</v>
+        <v>1.2830225129933785</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>3</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2528872254441152</v>
+        <v>1.5956098266084815</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>7.8492588477712815</v>
+        <v>1.2956657655271087</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>3</v>
@@ -610,9 +610,7 @@
       <c r="A38" s="0">
         <v>41</v>
       </c>
-      <c r="B38" s="0">
-        <v>11.085644281060286</v>
-      </c>
+      <c r="B38" s="0"/>
       <c r="C38" s="0" t="s">
         <v>3</v>
       </c>
@@ -624,9 +622,7 @@
       <c r="A39" s="0">
         <v>42</v>
       </c>
-      <c r="B39" s="0">
-        <v>11.787413302490084</v>
-      </c>
+      <c r="B39" s="0"/>
       <c r="C39" s="0" t="s">
         <v>3</v>
       </c>
@@ -638,9 +634,7 @@
       <c r="A40" s="0">
         <v>43</v>
       </c>
-      <c r="B40" s="0">
-        <v>5.3650155599587306</v>
-      </c>
+      <c r="B40" s="0"/>
       <c r="C40" s="0" t="s">
         <v>3</v>
       </c>
@@ -652,9 +646,7 @@
       <c r="A41" s="0">
         <v>44</v>
       </c>
-      <c r="B41" s="0">
-        <v>4.2030212278931174</v>
-      </c>
+      <c r="B41" s="0"/>
       <c r="C41" s="0" t="s">
         <v>3</v>
       </c>
@@ -666,9 +658,7 @@
       <c r="A42" s="0">
         <v>45</v>
       </c>
-      <c r="B42" s="0">
-        <v>7.0016582996886472</v>
-      </c>
+      <c r="B42" s="0"/>
       <c r="C42" s="0" t="s">
         <v>3</v>
       </c>
@@ -680,9 +670,7 @@
       <c r="A43" s="0">
         <v>46</v>
       </c>
-      <c r="B43" s="0">
-        <v>7.6672681831268559</v>
-      </c>
+      <c r="B43" s="0"/>
       <c r="C43" s="0" t="s">
         <v>3</v>
       </c>
@@ -694,9 +682,7 @@
       <c r="A44" s="0">
         <v>47</v>
       </c>
-      <c r="B44" s="0">
-        <v>4.9624184144603243</v>
-      </c>
+      <c r="B44" s="0"/>
       <c r="C44" s="0" t="s">
         <v>3</v>
       </c>
@@ -708,9 +694,7 @@
       <c r="A45" s="0">
         <v>48</v>
       </c>
-      <c r="B45" s="0">
-        <v>3.9491561015175711</v>
-      </c>
+      <c r="B45" s="0"/>
       <c r="C45" s="0" t="s">
         <v>3</v>
       </c>
@@ -722,9 +706,7 @@
       <c r="A46" s="0">
         <v>49</v>
       </c>
-      <c r="B46" s="0">
-        <v>4.572035621471251</v>
-      </c>
+      <c r="B46" s="0"/>
       <c r="C46" s="0" t="s">
         <v>3</v>
       </c>
@@ -736,9 +718,7 @@
       <c r="A47" s="0">
         <v>50</v>
       </c>
-      <c r="B47" s="0">
-        <v>5.5157360781360421</v>
-      </c>
+      <c r="B47" s="0"/>
       <c r="C47" s="0" t="s">
         <v>3</v>
       </c>
@@ -750,9 +730,7 @@
       <c r="A48" s="0">
         <v>51</v>
       </c>
-      <c r="B48" s="0">
-        <v>3.7124896552910758</v>
-      </c>
+      <c r="B48" s="0"/>
       <c r="C48" s="0" t="s">
         <v>3</v>
       </c>
@@ -764,9 +742,7 @@
       <c r="A49" s="0">
         <v>52</v>
       </c>
-      <c r="B49" s="0">
-        <v>1.7465435648116256</v>
-      </c>
+      <c r="B49" s="0"/>
       <c r="C49" s="0" t="s">
         <v>3</v>
       </c>
